--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tff3-Cxcr4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tff3-Cxcr4.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.279880394848812</v>
+        <v>0.7901163333333333</v>
       </c>
       <c r="H2">
-        <v>0.279880394848812</v>
+        <v>2.370349</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>71.3219165230969</v>
+        <v>224.2321046666667</v>
       </c>
       <c r="N2">
-        <v>71.3219165230969</v>
+        <v>672.696314</v>
       </c>
       <c r="O2">
-        <v>0.7741254310749172</v>
+        <v>0.9009864013525987</v>
       </c>
       <c r="P2">
-        <v>0.7741254310749172</v>
+        <v>0.9009864013525988</v>
       </c>
       <c r="Q2">
-        <v>19.96160615785837</v>
+        <v>177.1694483548429</v>
       </c>
       <c r="R2">
-        <v>19.96160615785837</v>
+        <v>1594.525035193586</v>
       </c>
       <c r="S2">
-        <v>0.7741254310749172</v>
+        <v>0.9009864013525987</v>
       </c>
       <c r="T2">
-        <v>0.7741254310749172</v>
+        <v>0.9009864013525988</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.279880394848812</v>
+        <v>0.7901163333333333</v>
       </c>
       <c r="H3">
-        <v>0.279880394848812</v>
+        <v>2.370349</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.653126915066964</v>
+        <v>1.023704333333333</v>
       </c>
       <c r="N3">
-        <v>0.653126915066964</v>
+        <v>3.071113</v>
       </c>
       <c r="O3">
-        <v>0.007089015260955726</v>
+        <v>0.004113343558497904</v>
       </c>
       <c r="P3">
-        <v>0.007089015260955726</v>
+        <v>0.004113343558497904</v>
       </c>
       <c r="Q3">
-        <v>0.1827974188753284</v>
+        <v>0.8088455142707778</v>
       </c>
       <c r="R3">
-        <v>0.1827974188753284</v>
+        <v>7.279609628437</v>
       </c>
       <c r="S3">
-        <v>0.007089015260955726</v>
+        <v>0.004113343558497904</v>
       </c>
       <c r="T3">
-        <v>0.007089015260955726</v>
+        <v>0.004113343558497904</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.279880394848812</v>
+        <v>0.7901163333333333</v>
       </c>
       <c r="H4">
-        <v>0.279880394848812</v>
+        <v>2.370349</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.1572049806258</v>
+        <v>23.61820766666667</v>
       </c>
       <c r="N4">
-        <v>20.1572049806258</v>
+        <v>70.854623</v>
       </c>
       <c r="O4">
-        <v>0.2187855536641272</v>
+        <v>0.0949002550889034</v>
       </c>
       <c r="P4">
-        <v>0.2187855536641272</v>
+        <v>0.09490025508890343</v>
       </c>
       <c r="Q4">
-        <v>5.641606489025989</v>
+        <v>18.66113164149189</v>
       </c>
       <c r="R4">
-        <v>5.641606489025989</v>
+        <v>167.950184773427</v>
       </c>
       <c r="S4">
-        <v>0.2187855536641272</v>
+        <v>0.0949002550889034</v>
       </c>
       <c r="T4">
-        <v>0.2187855536641272</v>
+        <v>0.09490025508890343</v>
       </c>
     </row>
   </sheetData>
